--- a/W1D3 - ESERCIZIO 2.xlsx
+++ b/W1D3 - ESERCIZIO 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutto\Famiglia\Epicode\Corso\0.1 EXCEL\02. LEZIONE PRATICA W1D2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutto\Famiglia\Epicode\Corso\0.1 EXCEL\02. LEZIONE PRATICA W1D2 E D3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA508974-D509-4712-A2F9-DB3D7E868D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F019438D-67AD-470C-B382-407D8E02A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CONTA" sheetId="32" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$C$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assoluti_Iva!$A$4:$H$340</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CONTA!$A$1:$B$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LOGICA!$A$1:$D$80</definedName>
     <definedName name="abitanti">CONTA!$B$2:$B$110</definedName>
@@ -1032,14 +1032,7 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1354,9 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}">
   <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1378,7 @@
       </c>
       <c r="H2" s="31">
         <f>AVERAGE(IMPONIBILE)</f>
-        <v>519442.42424242425</v>
+        <v>510166.66666666669</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -4843,7 +4836,9 @@
       <c r="B153" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="10"/>
+      <c r="C153" s="10">
+        <v>0</v>
+      </c>
       <c r="D153" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5623,7 +5618,9 @@
       <c r="B187" t="s">
         <v>38</v>
       </c>
-      <c r="C187" s="10"/>
+      <c r="C187" s="10">
+        <v>0</v>
+      </c>
       <c r="D187" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5805,7 +5802,9 @@
       <c r="B195" t="s">
         <v>10</v>
       </c>
-      <c r="C195" s="10"/>
+      <c r="C195" s="10">
+        <v>0</v>
+      </c>
       <c r="D195" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6631,7 +6630,9 @@
       <c r="B231" t="s">
         <v>38</v>
       </c>
-      <c r="C231" s="10"/>
+      <c r="C231" s="10">
+        <v>0</v>
+      </c>
       <c r="D231" s="7" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7802,7 +7803,9 @@
       <c r="B282" t="s">
         <v>58</v>
       </c>
-      <c r="C282" s="10"/>
+      <c r="C282" s="10">
+        <v>0</v>
+      </c>
       <c r="D282" s="7" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -8605,7 +8608,9 @@
       <c r="B317" t="s">
         <v>22</v>
       </c>
-      <c r="C317" s="10"/>
+      <c r="C317" s="10">
+        <v>0</v>
+      </c>
       <c r="D317" s="7" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -9149,13 +9154,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:H340" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B5:B340">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>B5="Ufficio"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10646,7 +10652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
